--- a/biology/Botanique/Russet_Burbank/Russet_Burbank.xlsx
+++ b/biology/Botanique/Russet_Burbank/Russet_Burbank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Russet Burbank est une variété cultivée de pomme de terre d'origine américaine.
@@ -513,10 +525,12 @@
           <t>Particularité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Quand on utilise cette pomme de terre pour faire des chips, il se produit une coloration foncée due au phénomène de caramélisation car sa teneur en sucres est supérieure à celle d'autres variétés, telle que la 'Maris Piper', plus couramment employée par les producteurs de chips américains.
-Elle a également une plus forte activité antioxydante, ce qui est rare pour de l'amidon[1]
+Elle a également une plus forte activité antioxydante, ce qui est rare pour de l'amidon
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Origine génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette variété, sélectionnée en 1908 par Sweet, est issue, probablement par mutation, d'un semis de la variété 'Burbank', elle-même issue de la variété 'Early Rose', descendante d'une pomme de terre d'Amérique du Sud, d'origine présumée chilienne, introduite du Panama aux États-Unis vers 1850, 'Rough Purple Chili'[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété, sélectionnée en 1908 par Sweet, est issue, probablement par mutation, d'un semis de la variété 'Burbank', elle-même issue de la variété 'Early Rose', descendante d'une pomme de terre d'Amérique du Sud, d'origine présumée chilienne, introduite du Panama aux États-Unis vers 1850, 'Rough Purple Chili'.
 </t>
         </is>
       </c>
@@ -576,14 +592,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un horticulteur, Luther Burbank, crée à Lunenburg (États-Unis), au début des années 1870, une variété de pomme de terre à laquelle il donna son nom, la « Burbank ».
 En 1875, Burbank vendit sa ferme, et les droits sur sa pomme de terre, pour s'installer à Santa Rosa (Californie). Plus tard, une nouvelle variété descendant de la 'Burbank', mais avec une peau de couleur brun-roux (russet en anglais) fut sélectionnée et baptisée « Russet Burbank ».
 La « Russet Burbank » est devenue la variété la plus couramment cultivée dans  l'Idaho, principal État américain producteur de pommes de terre. En 1990, elle y représentait 91,6 % des emblavements en pommes de terre.
-Malgré la percée de variétés plus récentes, telles que 'Ranger Russet', 'Shepody' et 'Umatilla Russet', la 'Russet Burbank' représentait encore en 2010, 44,6 % des emblavements dans les principaux États patatiers des États-Unis (Idaho, Washington, Oregon, Wisconsin, Maine, Dakota du Nord et Minnesota)[3].
+Malgré la percée de variétés plus récentes, telles que 'Ranger Russet', 'Shepody' et 'Umatilla Russet', la 'Russet Burbank' représentait encore en 2010, 44,6 % des emblavements dans les principaux États patatiers des États-Unis (Idaho, Washington, Oregon, Wisconsin, Maine, Dakota du Nord et Minnesota).
 Sa remarquable longévité commerciale peut se comparer à celle de la 'Bintje' en Europe du Nord-Ouest.
-Cette variété a servi (avec d'autres) dans les années 1990 à la création des pommes de terre transgéniques 'NewLeaf' par la société Monsanto (il s'agissait de variétés résistantes au doryphore et au virus Y de la pomme de terre)[4].
+Cette variété a servi (avec d'autres) dans les années 1990 à la création des pommes de terre transgéniques 'NewLeaf' par la société Monsanto (il s'agissait de variétés résistantes au doryphore et au virus Y de la pomme de terre).
 </t>
         </is>
       </c>
